--- a/Retroplanning.xlsx
+++ b/Retroplanning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stell\Desktop\Pro\Cartable\Cours\Projet Infra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stell\Desktop\Pro\Cartable\Cours\Projet Infra\ProjetInfraSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C81810-775F-41E5-AC26-99DEDF93A93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAECE62-BE2F-4B3B-8B0B-4836015046F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7A261D9-401C-4724-B9D3-6F6FEF9C3E2B}"/>
   </bookViews>
@@ -147,12 +147,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,10 +185,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,7 +509,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,22 +559,22 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
@@ -561,50 +582,50 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
@@ -613,18 +634,18 @@
       <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G8" t="s">
@@ -632,10 +653,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="4" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Retroplanning.xlsx
+++ b/Retroplanning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stell\Desktop\Pro\Cartable\Cours\Projet Infra\ProjetInfraSI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAECE62-BE2F-4B3B-8B0B-4836015046F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921184D7-417A-4CE8-A04A-42B6A3D645F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7A261D9-401C-4724-B9D3-6F6FEF9C3E2B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Découvert du projet</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Héberger le site web</t>
-  </si>
-  <si>
-    <t>slide</t>
   </si>
   <si>
     <t>Tableau filtrage</t>
@@ -162,13 +159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +506,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,14 +568,14 @@
       <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -594,7 +591,7 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -614,7 +611,7 @@
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -626,18 +623,18 @@
         <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -648,7 +645,7 @@
       <c r="F8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -656,9 +653,7 @@
       <c r="F9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>29</v>
-      </c>
+      <c r="G9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
